--- a/observations/summary_files/mtp029/NOMAD_nightside_nadir_summary.xlsx
+++ b/observations/summary_files/mtp029/NOMAD_nightside_nadir_summary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMAD_DOCS\Matlab_f\20180731_NOMAD\MTP029\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\summary_files\mtp029\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92D9F39-47CA-44CC-AE98-C2DDF84D98A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9288"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOMAD_nightside_nadir_summary" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="226">
   <si>
     <t>Orbit 80/40 or 60/60 or OFF (1-11 = 80/40; 101-111 = 60/60; 12 = switch off)</t>
   </si>
@@ -580,13 +581,130 @@
   </si>
   <si>
     <t>2020 JUL 10 16:44:10</t>
+  </si>
+  <si>
+    <t>TC20 FIXED</t>
+  </si>
+  <si>
+    <t>TC20 PRECOOLING</t>
+  </si>
+  <si>
+    <t>TC20 SCI1</t>
+  </si>
+  <si>
+    <t>TC20 SCI2</t>
+  </si>
+  <si>
+    <t>LNO_OBSERVING (1=YES;0=NO)</t>
+  </si>
+  <si>
+    <t>OBSERVATION NUMBER</t>
+  </si>
+  <si>
+    <t>OBSERVATION TYPE</t>
+  </si>
+  <si>
+    <t>APPROX TC START TIME</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>nightside</t>
+  </si>
+  <si>
+    <t>2020 JUN 14 05:03:46</t>
+  </si>
+  <si>
+    <t>LNO OFF</t>
+  </si>
+  <si>
+    <t>2020 JUN 15 04:39:36</t>
+  </si>
+  <si>
+    <t>2020 JUN 16 08:11:11</t>
+  </si>
+  <si>
+    <t>2020 JUN 17 07:46:49</t>
+  </si>
+  <si>
+    <t>2020 JUN 18 05:24:28</t>
+  </si>
+  <si>
+    <t>2020 JUN 19 06:57:53</t>
+  </si>
+  <si>
+    <t>2020 JUN 20 08:31:13</t>
+  </si>
+  <si>
+    <t>2020 JUN 21 10:04:32</t>
+  </si>
+  <si>
+    <t>2020 JUN 22 11:37:49</t>
+  </si>
+  <si>
+    <t>2020 JUN 23 09:15:11</t>
+  </si>
+  <si>
+    <t>2020 JUN 24 10:48:23</t>
+  </si>
+  <si>
+    <t>2020 JUN 25 10:23:38</t>
+  </si>
+  <si>
+    <t>2020 JUN 26 13:54:44</t>
+  </si>
+  <si>
+    <t>2020 JUN 27 11:31:56</t>
+  </si>
+  <si>
+    <t>LNO ON</t>
+  </si>
+  <si>
+    <t>2020 JUN 28 13:05:01</t>
+  </si>
+  <si>
+    <t>2020 JUN 29 12:40:09</t>
+  </si>
+  <si>
+    <t>2020 JUN 30 14:13:12</t>
+  </si>
+  <si>
+    <t>2020 JUL 01 13:48:19</t>
+  </si>
+  <si>
+    <t>2020 JUL 02 13:23:24</t>
+  </si>
+  <si>
+    <t>2020 JUL 03 12:58:31</t>
+  </si>
+  <si>
+    <t>2020 JUL 04 16:29:22</t>
+  </si>
+  <si>
+    <t>2020 JUL 05 18:02:21</t>
+  </si>
+  <si>
+    <t>2020 JUL 06 17:37:20</t>
+  </si>
+  <si>
+    <t>2020 JUL 07 13:16:32</t>
+  </si>
+  <si>
+    <t>2020 JUL 08 18:45:15</t>
+  </si>
+  <si>
+    <t>2020 JUL 09 18:20:11</t>
+  </si>
+  <si>
+    <t>2020 JUL 10 15:57:15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,6 +835,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1063,9 +1188,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1386,14 +1512,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AY10" workbookViewId="0">
+      <selection activeCell="BN19" sqref="BN19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1568,8 +1701,35 @@
       <c r="BF1" t="s">
         <v>57</v>
       </c>
+      <c r="BG1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>17</v>
       </c>
@@ -1744,8 +1904,35 @@
       <c r="BF2" t="s">
         <v>63</v>
       </c>
+      <c r="BG2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>8</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>17</v>
       </c>
@@ -1920,8 +2107,35 @@
       <c r="BF3" t="s">
         <v>68</v>
       </c>
+      <c r="BG3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>20</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>17</v>
       </c>
@@ -2096,8 +2310,35 @@
       <c r="BF4" t="s">
         <v>73</v>
       </c>
+      <c r="BG4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL4" s="2">
+        <v>34</v>
+      </c>
+      <c r="BM4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BO4" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>17</v>
       </c>
@@ -2272,8 +2513,35 @@
       <c r="BF5" t="s">
         <v>68</v>
       </c>
+      <c r="BG5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>46</v>
+      </c>
+      <c r="BM5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="BO5" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>17</v>
       </c>
@@ -2448,8 +2716,35 @@
       <c r="BF6" t="s">
         <v>82</v>
       </c>
+      <c r="BG6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL6" s="2">
+        <v>57</v>
+      </c>
+      <c r="BM6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BO6" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>17</v>
       </c>
@@ -2624,8 +2919,35 @@
       <c r="BF7" t="s">
         <v>82</v>
       </c>
+      <c r="BG7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL7" s="2">
+        <v>70</v>
+      </c>
+      <c r="BM7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BO7" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>17</v>
       </c>
@@ -2800,8 +3122,35 @@
       <c r="BF8" t="s">
         <v>82</v>
       </c>
+      <c r="BG8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>83</v>
+      </c>
+      <c r="BM8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BO8" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>17</v>
       </c>
@@ -2976,8 +3325,35 @@
       <c r="BF9" t="s">
         <v>82</v>
       </c>
+      <c r="BG9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL9" s="2">
+        <v>96</v>
+      </c>
+      <c r="BM9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BO9" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>17</v>
       </c>
@@ -3152,8 +3528,35 @@
       <c r="BF10" t="s">
         <v>99</v>
       </c>
+      <c r="BG10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL10" s="2">
+        <v>109</v>
+      </c>
+      <c r="BM10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BO10" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>17</v>
       </c>
@@ -3328,8 +3731,35 @@
       <c r="BF11" t="s">
         <v>104</v>
       </c>
+      <c r="BG11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL11" s="2">
+        <v>120</v>
+      </c>
+      <c r="BM11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="BO11" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>17</v>
       </c>
@@ -3504,8 +3934,35 @@
       <c r="BF12" t="s">
         <v>109</v>
       </c>
+      <c r="BG12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL12" s="2">
+        <v>133</v>
+      </c>
+      <c r="BM12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO12" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>17</v>
       </c>
@@ -3680,8 +4137,35 @@
       <c r="BF13" t="s">
         <v>114</v>
       </c>
+      <c r="BG13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL13" s="2">
+        <v>145</v>
+      </c>
+      <c r="BM13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BO13" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>17</v>
       </c>
@@ -3856,8 +4340,35 @@
       <c r="BF14" t="s">
         <v>104</v>
       </c>
+      <c r="BG14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL14" s="2">
+        <v>159</v>
+      </c>
+      <c r="BM14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BO14" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>47</v>
       </c>
@@ -4032,8 +4543,35 @@
       <c r="BF15" t="s">
         <v>124</v>
       </c>
+      <c r="BG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI15" s="2">
+        <v>1644</v>
+      </c>
+      <c r="BJ15" s="2">
+        <v>1644</v>
+      </c>
+      <c r="BK15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL15" s="2">
+        <v>170</v>
+      </c>
+      <c r="BM15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BO15" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>7</v>
       </c>
@@ -4208,8 +4746,35 @@
       <c r="BF16" t="s">
         <v>124</v>
       </c>
+      <c r="BG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI16" s="2">
+        <v>1644</v>
+      </c>
+      <c r="BJ16" s="2">
+        <v>1644</v>
+      </c>
+      <c r="BK16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL16" s="2">
+        <v>183</v>
+      </c>
+      <c r="BM16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BO16" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -4384,8 +4949,35 @@
       <c r="BF17" t="s">
         <v>134</v>
       </c>
+      <c r="BG17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL17" s="2">
+        <v>195</v>
+      </c>
+      <c r="BM17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO17" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4560,8 +5152,35 @@
       <c r="BF18" t="s">
         <v>134</v>
       </c>
+      <c r="BG18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL18" s="2">
+        <v>208</v>
+      </c>
+      <c r="BM18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN18" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BO18" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>47</v>
       </c>
@@ -4736,8 +5355,35 @@
       <c r="BF19" t="s">
         <v>144</v>
       </c>
+      <c r="BG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="2">
+        <v>1028</v>
+      </c>
+      <c r="BJ19" s="2">
+        <v>1028</v>
+      </c>
+      <c r="BK19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL19" s="2">
+        <v>220</v>
+      </c>
+      <c r="BM19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BO19" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>17</v>
       </c>
@@ -4912,8 +5558,35 @@
       <c r="BF20" t="s">
         <v>149</v>
       </c>
+      <c r="BG20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL20" s="2">
+        <v>232</v>
+      </c>
+      <c r="BM20" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN20" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BO20" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>17</v>
       </c>
@@ -5088,8 +5761,35 @@
       <c r="BF21" t="s">
         <v>154</v>
       </c>
+      <c r="BG21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL21" s="2">
+        <v>244</v>
+      </c>
+      <c r="BM21" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO21" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>17</v>
       </c>
@@ -5264,8 +5964,35 @@
       <c r="BF22" t="s">
         <v>159</v>
       </c>
+      <c r="BG22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL22" s="2">
+        <v>258</v>
+      </c>
+      <c r="BM22" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BO22" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>17</v>
       </c>
@@ -5440,8 +6167,35 @@
       <c r="BF23" t="s">
         <v>149</v>
       </c>
+      <c r="BG23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL23" s="2">
+        <v>271</v>
+      </c>
+      <c r="BM23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="BO23" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>7</v>
       </c>
@@ -5616,8 +6370,35 @@
       <c r="BF24" t="s">
         <v>169</v>
       </c>
+      <c r="BG24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI24" s="2">
+        <v>1644</v>
+      </c>
+      <c r="BJ24" s="2">
+        <v>1644</v>
+      </c>
+      <c r="BK24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL24" s="2">
+        <v>283</v>
+      </c>
+      <c r="BM24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BO24" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>17</v>
       </c>
@@ -5792,8 +6573,35 @@
       <c r="BF25" t="s">
         <v>174</v>
       </c>
+      <c r="BG25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL25" s="2">
+        <v>293</v>
+      </c>
+      <c r="BM25" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="BO25" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>17</v>
       </c>
@@ -5968,8 +6776,35 @@
       <c r="BF26" t="s">
         <v>154</v>
       </c>
+      <c r="BG26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL26" s="2">
+        <v>308</v>
+      </c>
+      <c r="BM26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN26" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="BO26" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>17</v>
       </c>
@@ -6144,8 +6979,35 @@
       <c r="BF27" t="s">
         <v>149</v>
       </c>
+      <c r="BG27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL27" s="2">
+        <v>320</v>
+      </c>
+      <c r="BM27" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN27" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="BO27" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>17</v>
       </c>
@@ -6319,9 +7181,37 @@
       </c>
       <c r="BF28" t="s">
         <v>174</v>
+      </c>
+      <c r="BG28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BH28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BI28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BJ28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BK28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="BL28" s="2">
+        <v>331</v>
+      </c>
+      <c r="BM28" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN28" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO28" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>